--- a/data/trans_dic/P2C_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2058584142578432</v>
+        <v>0.2137608348477759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.455026264847919</v>
+        <v>0.4528305770062772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4646810045528826</v>
+        <v>0.4682677376453281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09611039387448411</v>
+        <v>0.09332782285295041</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3770512619778803</v>
+        <v>0.3798430815391703</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6105307038058964</v>
+        <v>0.6132956847590935</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5187786420366391</v>
+        <v>0.5157234795078828</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1506157906621519</v>
+        <v>0.1511609324219141</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3284429439090881</v>
+        <v>0.3275736484667984</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5491744516637325</v>
+        <v>0.5520172105278769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5077468546301652</v>
+        <v>0.506207817002866</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1320034499441943</v>
+        <v>0.1347136877121612</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.306737202215683</v>
+        <v>0.3071911569632667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5335743108036197</v>
+        <v>0.533396260651907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.546412869218811</v>
+        <v>0.5477924242673132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.164322404088156</v>
+        <v>0.154200341566355</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4552603606745349</v>
+        <v>0.4520284322907114</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6797903204381009</v>
+        <v>0.6805399728291353</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5876157576044637</v>
+        <v>0.587511735350418</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2099491463989667</v>
+        <v>0.207835897070031</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3915036632745236</v>
+        <v>0.3901462244739703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6006795590554719</v>
+        <v>0.6043357264912637</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5573295528474983</v>
+        <v>0.5573562006542202</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1755476148159493</v>
+        <v>0.1760826228867568</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4693568990020917</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.150978615613924</v>
+        <v>0.1509786156139239</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3569701294359846</v>
+        <v>0.3536325532873868</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4654350377675328</v>
+        <v>0.4673557467686768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3771566666761665</v>
+        <v>0.3765161956959432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1100933421319698</v>
+        <v>0.1118431181507925</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4592021173350797</v>
+        <v>0.4619084202044125</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5766401407663487</v>
+        <v>0.5769068589519507</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4647462736127267</v>
+        <v>0.4682092704854293</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1474313073085411</v>
+        <v>0.1480135679060627</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4244425285588149</v>
+        <v>0.4224505384211951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5398304396523925</v>
+        <v>0.5376634235181371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4387199618024546</v>
+        <v>0.4415160189337968</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1365726911572171</v>
+        <v>0.1364895398212117</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4359682111435207</v>
+        <v>0.4358431551543251</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.55154806696189</v>
+        <v>0.5475509452162572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.466843754238343</v>
+        <v>0.4670536741652004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1580861198045434</v>
+        <v>0.1579146846123177</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5379229027967345</v>
+        <v>0.5376410782441018</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6441033560795415</v>
+        <v>0.6444271598660239</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5447016575770049</v>
+        <v>0.5456024001655594</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1862916764268119</v>
+        <v>0.1881059059383407</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4768972391628837</v>
+        <v>0.4766681067445937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5940756802452749</v>
+        <v>0.5931541873100529</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4992538964575584</v>
+        <v>0.4981126364957338</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1674416973769155</v>
+        <v>0.16711780963083</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3935749999417081</v>
+        <v>0.3911844270995959</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4199591837231158</v>
+        <v>0.4152783343803356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3873185015514087</v>
+        <v>0.3866739804759903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06670716025393646</v>
+        <v>0.06580034614385719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4428876713336206</v>
+        <v>0.4392671974224525</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5420419762415767</v>
+        <v>0.5398694722364662</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4166326928656386</v>
+        <v>0.4147462913800974</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1129341001424907</v>
+        <v>0.1130075813777066</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4233754777748214</v>
+        <v>0.4250730997755563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4966279433033278</v>
+        <v>0.4972679405121437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4145468929398184</v>
+        <v>0.4149153233954003</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09565190833811021</v>
+        <v>0.09501304898959277</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4701852393399042</v>
+        <v>0.4686908947078993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5096395981531735</v>
+        <v>0.5068047386343052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4820432979911938</v>
+        <v>0.4837435714944809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.105436039023933</v>
+        <v>0.1044015153229051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.522238665828101</v>
+        <v>0.5181736624315254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6218112457884103</v>
+        <v>0.6234013520549864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5084625581690742</v>
+        <v>0.5066374721663041</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1525176887954202</v>
+        <v>0.1523281882478</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.482671104825059</v>
+        <v>0.4814239669447469</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5558981557253607</v>
+        <v>0.5558486793455645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4810290199817359</v>
+        <v>0.4845076932871642</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1231601953071154</v>
+        <v>0.1227137783350621</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3526586540705728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03332520167751662</v>
+        <v>0.03332520167751663</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4460756847186618</v>
@@ -1105,7 +1105,7 @@
         <v>0.4351828932941675</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03967074270184003</v>
+        <v>0.03967074270184002</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2696008390616513</v>
+        <v>0.2699148086018132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4562985426055333</v>
+        <v>0.4513749594867166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2955223894650076</v>
+        <v>0.2936950447893806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02280912057992417</v>
+        <v>0.02217655300822504</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3767444247761798</v>
+        <v>0.3797640270096735</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5489908753010756</v>
+        <v>0.5575327936919566</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4431410453955704</v>
+        <v>0.4459185792375999</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03431990760535975</v>
+        <v>0.0353194266296928</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.335355328042483</v>
+        <v>0.3378932185251471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5225306446612485</v>
+        <v>0.5230641405172096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3945809633944879</v>
+        <v>0.3945943781221488</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03152538690970628</v>
+        <v>0.03150393349881447</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3922217906769165</v>
+        <v>0.3871765899885424</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5807492051514737</v>
+        <v>0.5777258527957456</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4115273406099234</v>
+        <v>0.4193764746310243</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04620816590036632</v>
+        <v>0.04693003270073851</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5149672656759438</v>
+        <v>0.5186471986467395</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6757608300645075</v>
+        <v>0.6750120590841404</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5657880560668114</v>
+        <v>0.5673697075507624</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0592015825539928</v>
+        <v>0.06044795369357488</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.429061481888194</v>
+        <v>0.4281722128721491</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6091315983532073</v>
+        <v>0.6142847072979244</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4818471673100261</v>
+        <v>0.4824038581851714</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04918022559698901</v>
+        <v>0.04942723088339541</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.443677651489805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0887074253221647</v>
+        <v>0.08870742532216472</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4635133413072438</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3495201075759202</v>
+        <v>0.3487743376368928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4714380515473344</v>
+        <v>0.4710779060989926</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4199743453849382</v>
+        <v>0.4186937281520941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07885960035233602</v>
+        <v>0.0794429790547927</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.442278603247327</v>
+        <v>0.4433459812461125</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5956845731214242</v>
+        <v>0.596300528898841</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4924263364733357</v>
+        <v>0.4918712148940403</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1204380960827753</v>
+        <v>0.1202002129786112</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4072404639796612</v>
+        <v>0.4060267199178369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5433881228818285</v>
+        <v>0.5452303347090794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4677678242276033</v>
+        <v>0.4677114734725908</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1021896430336223</v>
+        <v>0.102999392230933</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3947258328776929</v>
+        <v>0.3932984816220717</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5164611592115647</v>
+        <v>0.517240531674812</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.465820056102815</v>
+        <v>0.4638867772212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1005206119481125</v>
+        <v>0.1009618804625772</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4853046456933195</v>
+        <v>0.4839900216112885</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6360526543512328</v>
+        <v>0.6345853939120595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5355360800294939</v>
+        <v>0.5343103886744801</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1401500116258927</v>
+        <v>0.1408798085792295</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4368112163996787</v>
+        <v>0.4364929713754787</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5745788178329125</v>
+        <v>0.5751836984327299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4991829894072959</v>
+        <v>0.499119327230989</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1172569884689155</v>
+        <v>0.1170604268238953</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>73582</v>
+        <v>76407</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>311306</v>
+        <v>309804</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>295393</v>
+        <v>297673</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47934</v>
+        <v>46546</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>255967</v>
+        <v>257862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>495033</v>
+        <v>497275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>450601</v>
+        <v>447947</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>93921</v>
+        <v>94261</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>340368</v>
+        <v>339467</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>821002</v>
+        <v>825251</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>763788</v>
+        <v>761473</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>148150</v>
+        <v>151192</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>109641</v>
+        <v>109803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>365045</v>
+        <v>364923</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>347349</v>
+        <v>348226</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81954</v>
+        <v>76906</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>309060</v>
+        <v>306866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>551190</v>
+        <v>551798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>510391</v>
+        <v>510301</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>130920</v>
+        <v>129602</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>405718</v>
+        <v>404311</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>898000</v>
+        <v>903466</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>838374</v>
+        <v>838414</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>197021</v>
+        <v>197621</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>229018</v>
+        <v>226877</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>293901</v>
+        <v>295114</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>194642</v>
+        <v>194311</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>105705</v>
+        <v>107385</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>332564</v>
+        <v>334524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>456208</v>
+        <v>456419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>313180</v>
+        <v>315514</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>164511</v>
+        <v>165161</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>579696</v>
+        <v>576976</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>767965</v>
+        <v>764882</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>522054</v>
+        <v>525382</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>283523</v>
+        <v>283350</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>279700</v>
+        <v>279620</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>348278</v>
+        <v>345754</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>240927</v>
+        <v>241035</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>151784</v>
+        <v>151620</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>389575</v>
+        <v>389371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>509581</v>
+        <v>509837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>367060</v>
+        <v>367667</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>207873</v>
+        <v>209898</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>651338</v>
+        <v>651025</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>845134</v>
+        <v>843824</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>594087</v>
+        <v>592729</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>347607</v>
+        <v>346934</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>253159</v>
+        <v>251622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>219219</v>
+        <v>216776</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>182007</v>
+        <v>181704</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>69808</v>
+        <v>68859</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>279478</v>
+        <v>277193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>334906</v>
+        <v>333563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>199574</v>
+        <v>198671</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>118315</v>
+        <v>118391</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>539493</v>
+        <v>541656</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>566086</v>
+        <v>566816</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>393377</v>
+        <v>393727</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>200307</v>
+        <v>198969</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>302437</v>
+        <v>301476</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266032</v>
+        <v>264553</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>226520</v>
+        <v>227319</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110337</v>
+        <v>109254</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>329551</v>
+        <v>326986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>384192</v>
+        <v>385174</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>243562</v>
+        <v>242688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>159784</v>
+        <v>159585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>615051</v>
+        <v>613462</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>633646</v>
+        <v>633590</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>456464</v>
+        <v>459765</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>257912</v>
+        <v>256978</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>65161</v>
+        <v>65237</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>131505</v>
+        <v>130086</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76648</v>
+        <v>76174</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22260</v>
+        <v>21643</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>83140</v>
+        <v>83806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>157475</v>
+        <v>159925</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>134234</v>
+        <v>135075</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31243</v>
+        <v>32153</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>155060</v>
+        <v>156233</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>300479</v>
+        <v>300785</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>221865</v>
+        <v>221873</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>59466</v>
+        <v>59425</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94798</v>
+        <v>93579</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>167371</v>
+        <v>166500</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106736</v>
+        <v>108772</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45096</v>
+        <v>45800</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>113643</v>
+        <v>114455</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>193839</v>
+        <v>193624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171386</v>
+        <v>171865</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>53894</v>
+        <v>55028</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>198387</v>
+        <v>197976</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>350278</v>
+        <v>353241</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>270933</v>
+        <v>271246</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92767</v>
+        <v>93233</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>658471</v>
+        <v>657066</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1002186</v>
+        <v>1001420</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>789991</v>
+        <v>787583</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>274533</v>
+        <v>276564</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>997251</v>
+        <v>999657</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1493189</v>
+        <v>1494733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1144588</v>
+        <v>1143298</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>445310</v>
+        <v>444430</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1685458</v>
+        <v>1680435</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2517236</v>
+        <v>2525770</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1967166</v>
+        <v>1966929</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>733589</v>
+        <v>739402</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>743635</v>
+        <v>740946</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1097896</v>
+        <v>1099553</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>876229</v>
+        <v>872593</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>349941</v>
+        <v>351477</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1094266</v>
+        <v>1091302</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1594379</v>
+        <v>1590701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1244792</v>
+        <v>1241943</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>518193</v>
+        <v>520891</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1807844</v>
+        <v>1806527</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2661727</v>
+        <v>2664529</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2099280</v>
+        <v>2099012</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>841753</v>
+        <v>840342</v>
       </c>
     </row>
     <row r="24">
